--- a/Text Annotation Tool Features.xlsx
+++ b/Text Annotation Tool Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Text-annotation-for-human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA314EE7-ED21-4699-9DA1-DFCD387F3A1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CAC068-608E-458F-8356-17ACEA606BE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>No.</t>
   </si>
@@ -274,12 +274,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:Y907"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6">
@@ -665,7 +665,7 @@
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="10"/>
@@ -692,7 +692,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6">
         <v>1.2</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="10"/>
@@ -729,7 +729,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6">
@@ -739,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="6">
         <v>2.2000000000000002</v>
       </c>
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -763,7 +763,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="6">
         <v>2.2999999999999998</v>
       </c>
@@ -771,13 +771,15 @@
         <v>12</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="6">
         <v>2.4</v>
       </c>
@@ -785,13 +787,15 @@
         <v>13</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6">
         <v>2.5</v>
       </c>
@@ -799,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -807,7 +811,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6">
@@ -817,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -825,7 +829,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="6">
         <v>2.7</v>
       </c>
@@ -833,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -841,7 +845,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="6">
         <v>2.8</v>
       </c>
@@ -855,7 +859,7 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6">
         <v>2.9</v>
       </c>
@@ -869,7 +873,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6">
         <v>2.1</v>
       </c>
@@ -883,7 +887,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="6">
@@ -899,7 +903,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="6">
         <v>3.2</v>
       </c>
@@ -913,7 +917,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="6">
         <v>3.3</v>
       </c>
@@ -927,7 +931,7 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="6">
         <v>3.4</v>
       </c>
@@ -941,7 +945,7 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="6">
         <v>3.5</v>
       </c>
@@ -955,7 +959,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="6">
@@ -971,7 +975,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="6">
         <v>4.2</v>
       </c>
@@ -985,7 +989,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6">
         <v>4.3</v>
       </c>
@@ -999,7 +1003,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="6">
@@ -1015,7 +1019,7 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="6">
         <v>5.2</v>
       </c>

--- a/Text Annotation Tool Features.xlsx
+++ b/Text Annotation Tool Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Text-annotation-for-human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CAC068-608E-458F-8356-17ACEA606BE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BF2D1-EF73-43FB-A158-B8A1399C467F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>No.</t>
   </si>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y907"/>
+  <dimension ref="A1:Y906"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -853,7 +853,9 @@
         <v>18</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -943,91 +945,88 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" s="6">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="6">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="6">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="6">
-        <v>4.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -5444,19 +5443,14 @@
       <c r="B906" s="13"/>
       <c r="C906" s="14"/>
     </row>
-    <row r="907" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A907" s="13"/>
-      <c r="B907" s="13"/>
-      <c r="C907" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
